--- a/biology/Zoologie/Diaphora_mendica/Diaphora_mendica.xlsx
+++ b/biology/Zoologie/Diaphora_mendica/Diaphora_mendica.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Écaille mendiante (Diaphora mendica) est une espèce paléarctique de lépidoptères (papillons) de la famille des Erebidae et de la sous-famille des Arctiinae.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le dimorphisme sexuel est prononcé : l'imago mâle est gris-brun avec petites taches noires, tandis que la femelle est blanche également tachetée de noir.
 			Mâle.
@@ -545,10 +559,12 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Diaphora mendica est répandue en Europe moyenne et septentrionale, et dans une partie de l'Asie (Asie Mineure, Russie, Altaï)[1].
-Elle est présente dans toute la France métropolitaine continentale, mais absent de Corse[2],[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Diaphora mendica est répandue en Europe moyenne et septentrionale, et dans une partie de l'Asie (Asie Mineure, Russie, Altaï).
+Elle est présente dans toute la France métropolitaine continentale, mais absent de Corse,.
 </t>
         </is>
       </c>
@@ -577,7 +593,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce occupe presque tous les milieux, y compris les jardins dans des zones urbaines, jusqu'à environ 2 000 m d'altitude.
 </t>
@@ -608,10 +626,12 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">L'espèce est univoltine et les adultes volent de mars à juin.
-La chenille est polyphage[4], se nourrissant de diverses plantes herbacées.
+La chenille est polyphage, se nourrissant de diverses plantes herbacées.
 </t>
         </is>
       </c>
